--- a/webscrapping school/msaces/excel/2025-07-29.xlsx
+++ b/webscrapping school/msaces/excel/2025-07-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>749154</t>
+          <t>749124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AGROVINAZ - SOCIEDADE AGRÍCOLA, LDA</t>
+          <t>RPRITE GEST, LDA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.racius.com/agrovinaz-sociedade-agricola-lda/</t>
+          <t>https://www.racius.com/rprite-gest-lda/</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>510064728</t>
+          <t>513834460</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rua Comendador Ruy Gomes 5-A</t>
+          <t>Rua Fialho de Almeida, Nº14 - 2º Esq., Escritório Dk 10, Avenidas Novas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7170-047 Redondo</t>
+          <t>1070-129 Lisboa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>€ 2.500,00</t>
+          <t>€ 202.500,00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>749165</t>
+          <t>749196</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -644,31 +644,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CENÁRIO PROMISSOR, LDA.</t>
+          <t>TRANSPORTES CARLOS JORGE DA SILVA FAUSTINO LDA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TRANSFAUSTINO</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.racius.com/cenario-promissor-lda/</t>
+          <t>https://www.racius.com/transportes-carlos-jorge-da-silva-faustino-lda/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>513375589</t>
+          <t>502011629</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rua dos Cardosos Cci 10636, Lagameças</t>
+          <t>Caldelas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2965-261 Poceirão</t>
+          <t>2420-063 Caranguejeira</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -683,7 +687,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -718,7 +722,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>€ 2.000,00</t>
+          <t>Não disponível</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -730,41 +734,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>749169</t>
+          <t>749276</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEODOURO - CONSULTORIA E TOPOGRAFIA, LDA</t>
+          <t>RIVERSIDE HOTEL, S.A.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.racius.com/geodouro-consultoria-e-topografia-lda/</t>
+          <t>https://www.racius.com/riverside-hotel-s-a/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>504947400</t>
+          <t>514362529</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Avenida Dom Egas Moniz, Bloco 3, Rés do Chão Direito, Quinta dos Prados - Rina</t>
+          <t>Rua Serpa Pinto, 60</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5100-196 Lamego</t>
+          <t>4050-387 Porto</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -779,7 +783,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -814,53 +818,53 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>€ 50.184,00</t>
+          <t>€ 50.000,00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Anónima</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>749172</t>
+          <t>749280</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JANELAS ÉPICAS LDA</t>
+          <t>VITALITY &amp; LONGEVITY, LDA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.racius.com/janelas-epicas-lda/</t>
+          <t>https://www.racius.com/vitality-longevity-lda/</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>516963910</t>
+          <t>517421461</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Urbanização Quinta Verde, N.º 33, Nafarros</t>
+          <t>Rua David de Sousa, Nº 17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2710-445 Sintra</t>
+          <t>1000-105 Lisboa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -875,7 +879,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -922,41 +926,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>749207</t>
+          <t>749281</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEO - SERVIÇOS DE COMUNICAÇÕES E MULTIMÉDIA, S.A.</t>
+          <t>VITALITY &amp; LONGEVITY, LDA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.racius.com/meo-servicos-de-comunicacoes-e-multimedia-s-a/</t>
+          <t>https://www.racius.com/vitality-longevity-lda/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>502600268</t>
+          <t>517421461</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Edifício Marconi - Avenida Álvaro Pais, 2</t>
+          <t>Rua David de Sousa, Nº 17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1649-041 Lisboa</t>
+          <t>1000-105 Lisboa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -971,7 +975,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1006,53 +1010,53 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>€ 47.000.000,00</t>
+          <t>€ 1.000,00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Sociedade Anónima</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>749228</t>
+          <t>749282</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ILUMILED, LDA</t>
+          <t>OFFICETOTAL- FOOD BRANDS, LDA.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.racius.com/ilumiled-lda/</t>
+          <t>https://www.racius.com/officetotal-food-brands-lda/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>518543960</t>
+          <t>508483000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Avenida António Sérgio, Nº 438, R/C</t>
+          <t>Rua Conselheiro Pedro de Brito, Nº 15, 1ºAndar Letra B</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4730-709 Vila Verde</t>
+          <t>4970-445 Arcos de Valdevez</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1067,7 +1071,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1102,7 +1106,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 10.000,00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1114,7 +1118,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>749245</t>
+          <t>749333</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1124,31 +1128,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COLDSISTEMAS AVAC, LDA</t>
+          <t>WENERGIA, LDA.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.racius.com/coldsistemas-avac-lda/</t>
+          <t>https://www.racius.com/wenergia-lda/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>504713817</t>
+          <t>513047514</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rua do Seminário, Nº 132</t>
+          <t>Urbanização Poço do Lobo, Lote 51, Loja B, Póvoa de Sobrinhos</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4660-210 Resende</t>
+          <t>3505-485 Viseu</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1163,7 +1167,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1198,7 +1202,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Não disponível</t>
+          <t>€ 170.000,00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1210,7 +1214,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>749274</t>
+          <t>749335</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1220,31 +1224,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INVENTIS S.A.</t>
+          <t>EPOCA AMENA LDA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.racius.com/inventis-s-a/</t>
+          <t>https://www.racius.com/epoca-amena-lda/</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>508958270</t>
+          <t>516963384</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rua Barata Salgueiro, Nº 37, 3º Esquerdo</t>
+          <t>Rua do Bicalho, N.º 108</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1250-042 Lisboa</t>
+          <t>4150-138 Porto</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1259,7 +1263,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1294,53 +1298,53 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>€ 50.000,00</t>
+          <t>€ 3.000,00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Sociedade Anónima</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>749277</t>
+          <t>749342</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TIMEPEOPLE - TRABALHO TEMPORÁRIO E GESTÃO DE RECURSOS HUMANOS, LDA.</t>
+          <t>PELICANDECADE UNIPESSOAL LDA.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.racius.com/timepeople-trabalho-temporario-e-gestao-de-recursos-humanos-lda/</t>
+          <t>https://www.racius.com/pelicandecade-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>513391690</t>
+          <t>515037044</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rua de Azevedo Coutinho, Nº 39, Porto</t>
+          <t>Avenida Marechal Craveiro Lopes, 8-D, 1º C, Lisboa</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4100-100 Porto</t>
+          <t>1700-097 Lisboa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1355,7 +1359,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1390,57 +1394,53 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>€ 35.000,00</t>
+          <t>€ 1.500,00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>749327</t>
+          <t>749392</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MSA CABELEIREIRO E ESTÉTICA UNIPESSOAL, LDA</t>
+          <t>ELISABETE SANTOS VIEIRA UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VITALITÉ CABELEIREIRO E ESTÉTICA</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.racius.com/msa-cabeleireiro-e-estetica-unipessoal-lda/</t>
+          <t>https://www.racius.com/elisabete-santos-vieira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>518854485</t>
+          <t>516800272</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Praceta Cónego Francisco P Pereira, N.º 24Lj</t>
+          <t>Rua da Nascente, Nº 14, 3º Dto</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4715-287 São Victor</t>
+          <t>6300-421 Guarda</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>€ 2.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1502,7 +1502,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>749339</t>
+          <t>749400</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1512,31 +1512,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ABSTRATO E AUTÊNTICO LDA</t>
+          <t>RICARDO CARREIRA MIGUEL, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.racius.com/abstrato-e-autentico-lda/</t>
+          <t>https://www.racius.com/ricardo-carreira-miguel-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>516383116</t>
+          <t>518581241</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rua da Mata, N.º 956</t>
+          <t>Rua Vale das Servas, Número 251A</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4535-289 Paços de Brandão</t>
+          <t>2400-489 Sobreiro</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1586,53 +1586,57 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 1.000,00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>749343</t>
+          <t>749407</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025.07.11</t>
+          <t>2025.07.12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CRUZ DE OITO- ENGENHARIA SOCIEDADE UNIPESSOAL LDA</t>
+          <t>MAGNIFICA DIVERSÃO LDA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NICKITRAVEL</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.racius.com/cruz-de-oito-engenharia-sociedade-unipessoal-lda/</t>
+          <t>https://www.racius.com/magnifica-diversao-lda/</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>509645267</t>
+          <t>509933815</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Avenida Central de Milheirós, Nº 500C</t>
+          <t>Avenida São Tomé e Príncipe, Vivenda Hilário, Lote 38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4475-330 Maia</t>
+          <t>2605-860 Casal de Cambra</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1647,7 +1651,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1682,53 +1686,57 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>€ 25.000,00</t>
+          <t>€ 200,00</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>749352</t>
+          <t>749410</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025.07.11</t>
+          <t>2025.07.12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ALÍVIO EM RESPIRAR - REABILITAÇÃO RESPIRATÓRIA LDA</t>
+          <t>CHARMING SEASON, LDA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OLD PRESA COTTAGE - RUSTIC LUXURY</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.racius.com/alivio-em-respirar-reabilitacao-respiratoria-lda/</t>
+          <t>https://www.racius.com/charming-season-lda/</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>518159051</t>
+          <t>514053178</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rua Mateus Vicente, Nº 3, R/Ch Dtº</t>
+          <t>Rua S. João, 85 - Sala A, Vilarelho</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1500-445 Lisboa</t>
+          <t>4910-145 Caminha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1743,7 +1751,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1778,7 +1786,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>€ 2.000,00</t>
+          <t>€ 200,00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1790,17 +1798,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>749388</t>
+          <t>749418</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025.07.11</t>
+          <t>2025.07.13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WIDE TRAVEL - VIAGENS E TURISMO, LDA.</t>
+          <t>LUNES EXPERIENCE, LDA</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1808,27 +1816,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WIDE DMC PORTUGAL</t>
+          <t>LUNES EXPERIENCE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.racius.com/wide-travel-viagens-e-turismo-lda/</t>
+          <t>https://www.racius.com/lunes-experience-lda/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>508773911</t>
+          <t>518855252</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rua Margarida de Abreu, Nº 11-D Areeiro Lisboa</t>
+          <t>Quinta da Alegria, Sítio do Sobral, Estrada Municipal 529-1 Nº 394L</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1900-314 Lisboa</t>
+          <t>8400-492 Porches</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1843,7 +1851,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1878,7 +1886,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>€ 200.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1890,41 +1898,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>749402</t>
+          <t>749430</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025.07.12</t>
+          <t>2025.07.10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CARDINALDRAGON UNIPESSOAL LDA</t>
+          <t>TRAÇOS EXEQUÍVEIS ESTOFOS LDA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.racius.com/cardinaldragon-unipessoal-lda/</t>
+          <t>https://www.racius.com/tracos-exequiveis-estofos-lda/</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>515121657</t>
+          <t>517923068</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Caminho dos Eucaliptos, Nº 504, Almancil</t>
+          <t>Rua do Carreirinho, 48</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>8135-027 Almancil</t>
+          <t>2400-765 Amor</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1939,7 +1947,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1974,51 +1982,53 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>€ 10.000,00</t>
+          <t>€ 26.200,00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>58287</t>
+          <t>749433</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>READYBENEFIT, UNIPESSOAL, LDA.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>VIGORÉPRECISO - UNIPESSOAL, LDA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>37</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.racius.com/readybenefit-unipessoal-lda/</t>
+          <t>https://www.racius.com/vigorepreciso-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>515166650</t>
+          <t>518100871</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Avenida Corvo Marinho, N.º 362</t>
+          <t>Estrada de Santiago, Nº 2705</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2890-342 Alchochte</t>
+          <t>4905-261 Viana do Castelo</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2033,7 +2043,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2068,7 +2078,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>€ 20.000,00</t>
+          <t>€ 1.000,00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2080,41 +2090,45 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>749154</t>
+          <t>749448</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AGROVINAZ - SOCIEDADE AGRÍCOLA, LDA</t>
+          <t>SOFIA SA PEREIRA UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1 PETABYTE DE PEDAGOGIA</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.racius.com/agrovinaz-sociedade-agricola-lda/</t>
+          <t>https://www.racius.com/sofia-sa-pereira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>510064728</t>
+          <t>517752131</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rua Comendador Ruy Gomes 5-A</t>
+          <t>Rua Pintor Alves Cardoso, Nº 15, 2º Esquerdo</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7170-047 Redondo</t>
+          <t>1685-092 Caneças</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2154,63 +2168,67 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>123456844</t>
+          <t>123456805</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>12361</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>€ 2.500,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>749165</t>
+          <t>749450</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CENÁRIO PROMISSOR, LDA.</t>
+          <t>SOFIA SA PEREIRA UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1 SHOT DE PEDAGOGIA</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.racius.com/cenario-promissor-lda/</t>
+          <t>https://www.racius.com/sofia-sa-pereira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>513375589</t>
+          <t>517752131</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rua dos Cardosos Cci 10636, Lagameças</t>
+          <t>Rua Pintor Alves Cardoso, Nº 15, 2º Esquerdo</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2965-261 Poceirão</t>
+          <t>1685-092 Caneças</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2250,63 +2268,67 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>123456845</t>
+          <t>123456806</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>12362</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>€ 2.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>749169</t>
+          <t>749451</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GEODOURO - CONSULTORIA E TOPOGRAFIA, LDA</t>
+          <t>SOFIA SA PEREIRA UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ACADEMIA DE PEDAGOGIA DO ENSINO SUPERIOR</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.racius.com/geodouro-consultoria-e-topografia-lda/</t>
+          <t>https://www.racius.com/sofia-sa-pereira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>504947400</t>
+          <t>517752131</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Avenida Dom Egas Moniz, Bloco 3, Rés do Chão Direito, Quinta dos Prados - Rina</t>
+          <t>Rua Pintor Alves Cardoso, Nº 15, 2º Esquerdo</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5100-196 Lamego</t>
+          <t>1685-092 Caneças</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2346,63 +2368,67 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>123456846</t>
+          <t>123456807</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>12402</t>
+          <t>12363</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>€ 50.184,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>749172</t>
+          <t>749453</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JANELAS ÉPICAS LDA</t>
+          <t>LUÍS ANES &amp; ANES LDA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FLY DIGITAL</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.racius.com/janelas-epicas-lda/</t>
+          <t>https://www.racius.com/luis-anes-anes-lda/</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>516963910</t>
+          <t>516778889</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Urbanização Quinta Verde, N.º 33, Nafarros</t>
+          <t>Rua do Chafariz Velho, N.º 116</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2710-445 Sintra</t>
+          <t>6005-036 Alcains</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2442,17 +2468,17 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>123456847</t>
+          <t>123456808</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>12403</t>
+          <t>12364</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>€ 1.000,00</t>
+          <t>€ 500,00</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2464,41 +2490,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>749207</t>
+          <t>749460</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MEO - SERVIÇOS DE COMUNICAÇÕES E MULTIMÉDIA, S.A.</t>
+          <t>AXEVAIN, LDA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TINY FLAP</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.racius.com/meo-servicos-de-comunicacoes-e-multimedia-s-a/</t>
+          <t>https://www.racius.com/axevain-lda/</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>502600268</t>
+          <t>515458864</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Edifício Marconi - Avenida Álvaro Pais, 2</t>
+          <t>Rua Samuel Gonçalves Sanches, 19 A</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1649-041 Lisboa</t>
+          <t>2765-280 Estoril</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2538,63 +2568,67 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>123456848</t>
+          <t>123456809</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>12404</t>
+          <t>12365</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>€ 47.000.000,00</t>
+          <t>€ 50.000,00</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Sociedade Anónima</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>749228</t>
+          <t>749462</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ILUMILED, LDA</t>
+          <t>CARLOS ALONSO - DOURO WINE COMPANY, LDA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TERRA ALTA NINE 9</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.racius.com/ilumiled-lda/</t>
+          <t>https://www.racius.com/carlos-alonso-douro-wine-company-lda/</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>518543960</t>
+          <t>516209370</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Avenida António Sérgio, Nº 438, R/C</t>
+          <t>Parque Industrial de Alijó, Lote 24</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4730-709 Vila Verde</t>
+          <t>5070-072 Alijó</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2634,17 +2668,17 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>123456849</t>
+          <t>123456810</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>12405</t>
+          <t>12366</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 250.000,00</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2656,41 +2690,45 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>749245</t>
+          <t>749468</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COLDSISTEMAS AVAC, LDA</t>
+          <t>FÁTIMA CRISTINA DA COSTA PEREIRA RAMALHO, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>QLAVA</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.racius.com/coldsistemas-avac-lda/</t>
+          <t>https://www.racius.com/fatima-cristina-da-costa-pereira-ramalho-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>504713817</t>
+          <t>517832496</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rua do Seminário, Nº 132</t>
+          <t>Rua Manuel Silva, N.º 18</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4660-210 Resende</t>
+          <t>4490-657 Póvoa de Varzim</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2730,63 +2768,67 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>123456850</t>
+          <t>123456811</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>12406</t>
+          <t>12367</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Não disponível</t>
+          <t>€ 1.000,00</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>749274</t>
+          <t>749471</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>INVENTIS S.A.</t>
+          <t>JOANA ISABEL &amp; ANA CRISTINA, LDA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>EDUCONNECT</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.racius.com/inventis-s-a/</t>
+          <t>https://www.racius.com/joana-isabel-ana-cristina-lda/</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>508958270</t>
+          <t>518592030</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rua Barata Salgueiro, Nº 37, 3º Esquerdo</t>
+          <t>Rua Santo André, Bloco A, A</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1250-042 Lisboa</t>
+          <t>4620-122 Lousada</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2826,63 +2868,67 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>123456851</t>
+          <t>123456812</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>12407</t>
+          <t>12368</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>€ 50.000,00</t>
+          <t>€ 250,00</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Sociedade Anónima</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>749277</t>
+          <t>749478</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TIMEPEOPLE - TRABALHO TEMPORÁRIO E GESTÃO DE RECURSOS HUMANOS, LDA.</t>
+          <t>PEDRO CREATIVE STUDIO, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PEDRO EYESHOT</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.racius.com/timepeople-trabalho-temporario-e-gestao-de-recursos-humanos-lda/</t>
+          <t>https://www.racius.com/pedro-creative-studio-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>513391690</t>
+          <t>518638723</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rua de Azevedo Coutinho, Nº 39, Porto</t>
+          <t>Rua de São Filipe, N.º 14 - Fonte Santa</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4100-100 Porto</t>
+          <t>2670-554 Loures</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2922,67 +2968,63 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>123456852</t>
+          <t>123456813</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>12369</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>€ 35.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>749327</t>
+          <t>749488</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025.07.10</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MSA CABELEIREIRO E ESTÉTICA UNIPESSOAL, LDA</t>
+          <t>JÚDICE - RESOLUÇÃO DE LITÍGIOS E CONSULTORIA, S.A.</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>VITALITÉ CABELEIREIRO E ESTÉTICA</t>
-        </is>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.racius.com/msa-cabeleireiro-e-estetica-unipessoal-lda/</t>
+          <t>https://www.racius.com/judice-resolucao-de-litigios-e-consultoria-s-a/</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>518854485</t>
+          <t>503001490</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Praceta Cónego Francisco P Pereira, N.º 24Lj</t>
+          <t>Calçada do Galvão, 99, R/C</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4715-287 São Victor</t>
+          <t>1400-165 Lisboa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3022,63 +3064,67 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>123456853</t>
+          <t>123456814</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>12409</t>
+          <t>12370</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>€ 2.000,00</t>
+          <t>€ 110.000,00</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade Anónima</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>749339</t>
+          <t>749501</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025.07.11</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ABSTRATO E AUTÊNTICO LDA</t>
+          <t>VITACEUTICS, LDA.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PLANTADOL VITACEUTICS</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.racius.com/abstrato-e-autentico-lda/</t>
+          <t>https://www.racius.com/vitaceutics-lda/</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>516383116</t>
+          <t>515464996</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rua da Mata, N.º 956</t>
+          <t>Edifício Vitaceutics, Queimadas - Sernada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4535-289 Paços de Brandão</t>
+          <t>3505-330 Santos Evos</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3118,17 +3164,17 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>123456854</t>
+          <t>123456815</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>12410</t>
+          <t>12371</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>€ 5.000,00</t>
+          <t>€ 1.000,00</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3140,41 +3186,45 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>749343</t>
+          <t>749513</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025.07.11</t>
+          <t>2025.07.14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CRUZ DE OITO- ENGENHARIA SOCIEDADE UNIPESSOAL LDA</t>
+          <t>HIT - HOME INVESTMENT TEAM, LDA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SKYLINE STUDIO</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.racius.com/cruz-de-oito-engenharia-sociedade-unipessoal-lda/</t>
+          <t>https://www.racius.com/hit-home-investment-team-lda/</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>509645267</t>
+          <t>518157008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Avenida Central de Milheirós, Nº 500C</t>
+          <t>Rua Doutor Ulisses Pardal, Nº 17</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4475-330 Maia</t>
+          <t>6000-382 Castelo Branco</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3214,63 +3264,67 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>123456855</t>
+          <t>123456816</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>12411</t>
+          <t>12372</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>€ 25.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Sociedade Unipessoal</t>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>749352</t>
+          <t>749525</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025.07.11</t>
+          <t>2025.07.15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ALÍVIO EM RESPIRAR - REABILITAÇÃO RESPIRATÓRIA LDA</t>
+          <t>CS FINANZA, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CS FINANZA</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.racius.com/alivio-em-respirar-reabilitacao-respiratoria-lda/</t>
+          <t>https://www.racius.com/cs-finanza-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>518159051</t>
+          <t>517345536</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rua Mateus Vicente, Nº 3, R/Ch Dtº</t>
+          <t>Rua Sacadura Cabral, N.º 28, R/C Dto</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1500-445 Lisboa</t>
+          <t>2580-371 Alenquer</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3310,67 +3364,67 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>123456856</t>
+          <t>123456817</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>12373</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>€ 2.000,00</t>
+          <t>€ 5.000,00</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Sociedade Unipessoal</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>749388</t>
+          <t>749528</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025.07.11</t>
+          <t>2025.07.15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WIDE TRAVEL - VIAGENS E TURISMO, LDA.</t>
+          <t>CENTRO TECNOLÓGICO DA CORTIÇA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WIDE DMC PORTUGAL</t>
+          <t>SYMBIOS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.racius.com/wide-travel-viagens-e-turismo-lda/</t>
+          <t>https://www.racius.com/centro-tecnologico-da-cortica/</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>508773911</t>
+          <t>501804609</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rua Margarida de Abreu, Nº 11-D Areeiro Lisboa</t>
+          <t>Rua Amélia Camossa</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1900-314 Lisboa</t>
+          <t>4535-368 Santa Maria de Lamas</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3410,63 +3464,67 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>123456857</t>
+          <t>123456818</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>12413</t>
+          <t>12374</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>€ 200.000,00</t>
+          <t>Não disponível</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Sociedade por Quotas</t>
+          <t>Pessoa Colectiva de Utilidade Pública</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>749402</t>
+          <t>749536</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025.07.12</t>
+          <t>2025.07.15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CARDINALDRAGON UNIPESSOAL LDA</t>
+          <t>JOÃO GONÇALO MOREIRA UNIPESSOAL, LDA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>37</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>PATO BICHO</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.racius.com/cardinaldragon-unipessoal-lda/</t>
+          <t>https://www.racius.com/joao-goncalo-moreira-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>515121657</t>
+          <t>516928724</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Caminho dos Eucaliptos, Nº 504, Almancil</t>
+          <t>Rua Manuel Pedro Cardoso, Bloco B, R/C Esq.º</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>8135-027 Almancil</t>
+          <t>2590-033 Sobral de Monte Agraço</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3506,17 +3564,17 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>123456858</t>
+          <t>123456819</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>12414</t>
+          <t>12375</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>€ 10.000,00</t>
+          <t>€ 3.000,00</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3528,39 +3586,45 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>58287</t>
+          <t>749537</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025.07.09</t>
+          <t>2025.07.15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>READYBENEFIT, UNIPESSOAL, LDA.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+          <t>ASTERISCO INSPIRADOR UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>43</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PIMPINELA</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.racius.com/readybenefit-unipessoal-lda/</t>
+          <t>https://www.racius.com/asterisco-inspirador-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>515166650</t>
+          <t>517631547</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Avenida Corvo Marinho, N.º 362</t>
+          <t>Rua Manuel Vaz, 884, Quinta do Loureiro, Ferreira do Zêzere</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2890-342 Alchochte</t>
+          <t>2240-383 Ferreira do Zêzere</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3600,22 +3664,712 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>123456859</t>
+          <t>123456820</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>12415</t>
+          <t>12376</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>€ 20.000,00</t>
+          <t>€ 500,00</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
           <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>749542</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>APIMIGOR, LDA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DARK VILLAGE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/apimigor-lda/</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>510335047</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Zona Industrial, Lote 8</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>7700-999 Almodôvar</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>123456821</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>12377</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>€ 10.000,00</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>749554</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PARRAS WINES, UNIPESSOAL, LDA.</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MONGO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/parras-wines-unipessoal-lda/</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>509486908</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Estrada Nacional 8-5-Km 2,3, Fervença</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2460-526 Maiorga</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>123456822</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>12378</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>€ 155.000,00</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Sociedade Unipessoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>749563</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CO&amp;K, LDA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>33</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/co-k-lda/</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>514853611</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Rua Capitão Matos Ribeiro, Nº 33, Corredoura</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2480-402 Porto de Mos</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>123456823</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>749564</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CO&amp;K, LDA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>33</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/co-k-lda/</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>514853611</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Rua Capitão Matos Ribeiro, Nº 33, Corredoura</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2480-402 Porto de Mos</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>123456824</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>12380</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>749565</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PEDROSCILANTE LDA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>19</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MUROS MF</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/pedroscilante-lda/</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>517570688</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Beco do Rato, N.º 45, Casal da Quinta</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2415-013 Leiria</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>123456825</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>12381</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>€ 25.000,00</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>749566</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025.07.14</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CO&amp;K, LDA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>44</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ACADEMIA DOS SONHOS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/co-k-lda/</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>514853611</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Rua Capitão Matos Ribeiro, Nº 33, Corredoura</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2480-402 Porto de Mos</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>123456826</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>12382</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>€ 5.000,00</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>58288</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PEFICLIMA, LDA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.racius.com/peficlima-lda/</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>508825288</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Rua Álvaro Ferreira Alves, Nº 39-C, Santa Marta de Corroios</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2855-591 Corroios</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>07/2035</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 </t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>34,44</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>123456827</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>12383</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>€ 75.000,00</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Sociedade por Quotas</t>
         </is>
       </c>
     </row>
